--- a/src/main/resources/public/static/file/upload.xlsx
+++ b/src/main/resources/public/static/file/upload.xlsx
@@ -516,7 +516,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -524,12 +524,12 @@
     <col min="1" max="1" width="27.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -537,8 +537,8 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A1" r:id="rId2"/>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
